--- a/Tournament1BracketBlank.xlsx
+++ b/Tournament1BracketBlank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF2EA85-5150-4A69-BA60-82B2F70C08FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A3CEF7-4005-448C-A779-9C0320EC7997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28380" yWindow="3570" windowWidth="25485" windowHeight="14595" xr2:uid="{D7CBCFDF-C382-44AA-938F-833AB08825E4}"/>
+    <workbookView xWindow="9690" yWindow="4455" windowWidth="25485" windowHeight="14595" xr2:uid="{D7CBCFDF-C382-44AA-938F-833AB08825E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 8</t>
+  </si>
+  <si>
     <t>Team 2</t>
   </si>
   <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
     <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 5</t>
   </si>
   <si>
     <t>Loser of 1</t>
@@ -148,24 +166,6 @@
   </si>
   <si>
     <t>Match 15</t>
-  </si>
-  <si>
-    <t>Grease Squad</t>
-  </si>
-  <si>
-    <t>Nomen Omen</t>
-  </si>
-  <si>
-    <t>Teamy McTeam Face</t>
-  </si>
-  <si>
-    <t>We Gonna Pooke You</t>
-  </si>
-  <si>
-    <t>Traitor's Bluff</t>
-  </si>
-  <si>
-    <t>Underthere</t>
   </si>
 </sst>
 </file>
@@ -3522,7 +3522,7 @@
   <dimension ref="C2:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P66" sqref="B2:P66"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3550,7 +3550,7 @@
   <sheetData>
     <row r="2" spans="3:20" ht="35.25">
       <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3682,7 +3682,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="11" spans="3:20">
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3800,7 +3800,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="9"/>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="19" spans="3:20">
       <c r="C19" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3914,7 +3914,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
@@ -3982,7 +3982,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="25" spans="3:20">
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -4004,11 +4004,11 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="14"/>
@@ -4021,7 +4021,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4164,7 +4164,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -4182,11 +4182,11 @@
     </row>
     <row r="35" spans="3:20">
       <c r="C35" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="37" spans="3:20">
       <c r="C37" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -4229,7 +4229,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -4246,7 +4246,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="4"/>
@@ -4264,7 +4264,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="4"/>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="41" spans="3:20">
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
@@ -4329,11 +4329,11 @@
     </row>
     <row r="43" spans="3:20">
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
@@ -4350,7 +4350,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -4472,7 +4472,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4487,11 +4487,11 @@
     </row>
     <row r="53" spans="3:15">
       <c r="C53" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="55" spans="3:15">
       <c r="C55" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -4531,7 +4531,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -4548,7 +4548,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="4"/>
@@ -4561,7 +4561,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="60" spans="3:15">
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="61" spans="3:15">
       <c r="C61" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="9"/>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="62" spans="3:15">
       <c r="C62" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
